--- a/Miesięczne wynagrodzenie.xlsx
+++ b/Miesięczne wynagrodzenie.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x\Desktop\podregiony_2019_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EconometricsProject\Spacial-Econometrics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC9E00-3491-4B21-837A-BFE21725D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="727"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabl. 14(38)" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 14(38)'!$A$1:$B$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tabl. 14(38)'!$B$1:$C$21</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">W O J E W Ó D Z T W O </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Słupsk  </t>
   </si>
@@ -87,87 +85,23 @@
     <t xml:space="preserve">Sopot  </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">WYSZCZEGÓLNIENIE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>SPECIFICATION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ogółem     
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Total</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AVERAGE MONTHLY GROSS WAGES AND SALARIES</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> IN 2018</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">w zł     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>in PLN</t>
-    </r>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Average_Monthly_Gross_Wages_and_Salaries</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="@\ *."/>
+    <numFmt numFmtId="164" formatCode="@\ *."/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -278,25 +212,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -324,30 +239,9 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="7"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Arial CE"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -409,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -534,17 +428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -557,39 +440,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -612,10 +462,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -626,14 +476,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment horizontal="left" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -643,79 +493,65 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment horizontal="left" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
-    <cellStyle name="[StdExit()]" xfId="1"/>
-    <cellStyle name="[StdExit()] 2 2" xfId="2"/>
-    <cellStyle name="Akcent 1" xfId="3" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akcent 2" xfId="4" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akcent 3" xfId="5" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akcent 4" xfId="6" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akcent 5" xfId="7" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akcent 6" xfId="8" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="boczek 2 - polski" xfId="9"/>
-    <cellStyle name="boczek 3 - polski" xfId="10"/>
-    <cellStyle name="Dane wejściowe" xfId="11" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Dane wyjściowe" xfId="12" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Komórka połączona" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Komórka zaznaczona" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 1" xfId="15" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 2" xfId="16" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 3" xfId="17" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Nagłówek 4" xfId="18" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Notka - angielska" xfId="19"/>
-    <cellStyle name="Obliczenia" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Stan w dniu - angielski" xfId="21"/>
-    <cellStyle name="Stan w dniu - polski" xfId="22"/>
-    <cellStyle name="Suma" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tekst objaśnienia" xfId="24" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="25" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Tytuł" xfId="26" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Tytuł tablicy - polski" xfId="27"/>
-    <cellStyle name="Tytuł tablicy angielski" xfId="28"/>
-    <cellStyle name="Uwaga" xfId="29" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="[StdExit()]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="[StdExit()] 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="6" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="boczek 2 - polski" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="boczek 3 - polski" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Calculation" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="24" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="15" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="16" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="17" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="18" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="11" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="29" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notka - angielska" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Output" xfId="12" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Stan w dniu - angielski" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Stan w dniu - polski" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Title" xfId="26" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tytuł tablicy - polski" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Tytuł tablicy angielski" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Warning Text" xfId="25" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,9 +567,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -771,9 +607,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,7 +644,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,7 +679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1016,245 +852,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="20.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.73046875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:3" ht="39.4" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="2" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="5">
+        <v>2201</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4214.6899999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A3" s="5">
+        <v>2202</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3761.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A4" s="5">
+        <v>2203</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3979.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="5">
+        <v>2204</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4438.8599999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A6" s="5">
+        <v>2205</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3957.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A7" s="5">
+        <v>2206</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3720.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A8" s="5">
+        <v>2207</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4362.3599999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A9" s="5">
+        <v>2208</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4203.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A10" s="5">
+        <v>2209</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3868.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A11" s="5">
+        <v>2210</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4065.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A12" s="5">
+        <v>2211</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4198.7700000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A13" s="5">
+        <v>2212</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4149.8599999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A14" s="5">
+        <v>2213</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4323.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A15" s="5">
+        <v>2214</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4392.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A16" s="5">
+        <v>2215</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4046.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A17" s="5">
+        <v>2216</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3982.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="5">
+        <v>2261</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A19" s="5">
+        <v>2262</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5347.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A20" s="5">
+        <v>2263</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8">
-        <v>4794.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3761.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3979.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3720.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4438.8599999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10">
-        <v>3957.61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10">
-        <v>4065.87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10">
-        <v>4198.7700000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10">
-        <v>4046.77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10">
-        <v>4214.6899999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4203.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10">
-        <v>4149.8599999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="C20" s="10">
         <v>4057.24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10">
-        <v>4362.3599999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10">
-        <v>3868.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10">
-        <v>4323.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10">
-        <v>3982.12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10">
-        <v>4392.16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="10">
-        <v>5642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A23" s="5" t="s">
+    <row r="21" spans="1:3" ht="9.9499999999999993" customHeight="1">
+      <c r="A21" s="5">
+        <v>2264</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="10">
-        <v>5347.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="C21" s="10">
         <v>5700.74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1"/>
-    <row r="28" spans="1:2" s="2" customFormat="1"/>
-    <row r="29" spans="1:2" s="2" customFormat="1"/>
-    <row r="30" spans="1:2" s="2" customFormat="1"/>
-    <row r="31" spans="1:2" s="2" customFormat="1"/>
-    <row r="32" spans="1:2" s="2" customFormat="1"/>
-    <row r="33" spans="1:3" s="2" customFormat="1"/>
-    <row r="34" spans="1:3" s="2" customFormat="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" s="2" customFormat="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" s="4" customFormat="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="21.95" customHeight="1">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
   <pageMargins left="1.4763779527559056" right="1.4763779527559056" top="2.0472440944881889" bottom="1.8110236220472442" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
